--- a/biology/Zoologie/Canis_lupus_campestris/Canis_lupus_campestris.xlsx
+++ b/biology/Zoologie/Canis_lupus_campestris/Canis_lupus_campestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loup des steppes
 Canis lupus campestris, le Loup des steppes, est une sous-espèce de Canis lupus, le Loup commun. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis lupus campestris se rencontre dans les steppes et déserts de Russie et d'Asie mineure.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis lupus campestris est plus petit que Canis lupus et son poil est plus dur, plus court et plus clair. Son pelage est gris avec une teinte ocre.
 </t>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Canis lupus campestris Dwigubski, 1804[1].
-Canis lupus campestris a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Canis lupus campestris Dwigubski, 1804.
+Canis lupus campestris a pour synonymes :
 Canis lupus bactrianus Laptev, 1929
 Canis lupus cubanenesis Ognev, 1923
 Canis lupus desertorum Bogdanov, 1882</t>
